--- a/CloverEtl workspace/PawMatch/data-out/locations.xlsx
+++ b/CloverEtl workspace/PawMatch/data-out/locations.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19773" uniqueCount="3663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25821" uniqueCount="3663">
   <si>
     <t>Name</t>
   </si>
